--- a/docs/要件定義書.xlsx
+++ b/docs/要件定義書.xlsx
@@ -16,6 +16,7 @@
     <sheet name="データ要件" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="システム構成" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="リスク・未確定事項" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="割引仕様" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +467,7 @@
         </is>
       </c>
     </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
@@ -502,7 +504,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>v1.2</t>
+          <t>v1.4</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -641,6 +643,50 @@
       <c r="D15" s="4" t="inlineStr">
         <is>
           <t>齋藤 圭悟</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>v1.3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>割引機能拡張仕様（順序/併用/スナップショット）追記</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Codex</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>v1.4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>割引仕様（用語/適用範囲/排他・丸め）更新</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Codex</t>
         </is>
       </c>
     </row>
@@ -649,6 +695,402 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>用語定義</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>用語</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>定義</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>割引マスタ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>割引設定情報（方法・範囲・条件・有効期間など）を保持するDBエンティティ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>スコープ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>割引の対象範囲（チケット／ドリンク／物販／合計など）</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>優先度（priority）</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>複数割引適用時の順序制御値。数値が小さいほど優先</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>スナップショット</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>割引適用時に保存する計算結果の履歴データ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1. 機能概要</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ON Takuはイベント料金と割引を連動させ、主催者が登録したセット割・学割・スタッフ割・早割等を組み合わせてシステムが最適料金を即時計算・表示する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2. 割引マスタ管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>割引方法: 金額(円)/割合(％)/特典/その他</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>割引種別: セット割/学割/スタッフ割/早割（拡張可）</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>対象範囲: チケット/ドリンク/物販/イベント合計</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>条件: 最低金額/数量/ユーザー属性/会場/時間帯/クーポン/有効回数など</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>有効期間: 開始日・終了日（TZ考慮）</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>併用ルール: 併用可 / 同一範囲排他 / 完全排他</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>上限: 割引額キャップ、ユーザー・イベント単位回数制限</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3. 適用範囲</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>割引種別</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>適用対象</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>適用例</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>セット割</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>チケット料金のみ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>チケット2枚購入で500円OFF (数量条件)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>学割</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>チケット料金のみ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>学生証提示で10%OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>スタッフ割</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>チケット＋物販（設定可）</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>関係者割引20%OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>早割</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>チケット料金のみ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>イベント1ヶ月前まで5%OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>※合計金額対象の割引とチケット対象の割引は別計算扱い。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4. 割引計算仕様</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4-1. 割引の適用順序: セット割 → 学割/スタッフ割 → 早割。割引方法が混在する場合は％を先・円を後に適用しUIで順序を明示。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4-2. 排他・併用ルール: 学割とスタッフ割は排他（割引額比較→priority）。セット/早割は併用可。同一スコープ競合時は優先度または最も有利な割引を適用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4-3. 有効期間と状態表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>状態</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>表示文言</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>適用可否</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>利用可能</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>利用可能</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>開始前</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>開始前</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>期限切れ</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>期限切れ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>非公開</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>未公開</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4-4. 丸め仕様: 小数点は基本切り捨て(floor)。設定で round/floor/ceil を切替可能。各ステップ後に整数化し最終合計も再丸め。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4-5. 税計算仕様: 割引後課税（小計→割引→税→合計）。複数税率時は割引額を明細ごとに税率比で按分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>5. 表示仕様 (UI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>状態バッジで利用可能/開始前/期限切れ/併用不可を表示し、割引順序を画面ヘッダーに固定表示。排他時はチェック不可＋理由ツールチップ。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -872,7 +1314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,6 +1345,7 @@
         </is>
       </c>
     </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
@@ -1048,6 +1491,43 @@
       <c r="G7" s="4" t="inlineStr">
         <is>
           <t>app/controllers/artists_controller.rb:5-71; app/views/events/_timetable_chart.html.erb:1-125</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BUS-04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>割引・料金調整</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>割引ポリシーが属人化しており、期間・条件・併用ルールが統一されず説明責任が果たせない</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>割引マスタで方法/スコープ/条件/期間/併用/上限/priorityを定義し、シミュレーターとスナップショットで自動計算・再現性を担保</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(1) 割引マスタ登録 → (2) イベント編集で割引選択 → (3) シミュレーション確認 → (4) 適用・スナップショット保存</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>参加者へ割引可否を即提示し、監査・問合せ時に同一計算を再現可能</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>docs/discount_requirements.md</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,6 +1584,7 @@
         </is>
       </c>
     </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
@@ -1631,7 +2112,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>割引テンプレートをプルダウン・チェックで選択し割引後料金を計算。</t>
+          <t>割引カードで方法(％/円/特典/その他)・スコープ(チケット/ドリンク/物販/合計)・併用ルール・priorityを表示し、セット→学割/スタッフ→早割の順序と％先行ルールでイベントに保存する。</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -1651,32 +2132,248 @@
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>割引未選択時は空状態カード</t>
+          <t>割引ごとに最低金額/数量/属性/会場/時間帯/クーポン/有効回数を評価し、条件不一致は自動非選択</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>PATCH失敗時にflash alert</t>
+          <t>条件/期間外はバッジとツールチップで理由表示し422返却</t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>成功時 events#show</t>
+          <t>成功時 events#show / 失敗時422再描画</t>
         </is>
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
-          <t>チェックボックスはfocus-visible + text-xs説明</t>
+          <t>チェックボックスはfocus-visible、状態バッジ(利用可能/開始前/期限切れ/未公開)を表示</t>
         </is>
       </c>
       <c r="M11" s="4" t="inlineStr">
         <is>
-          <t>選択していない割引カードは即座に非表示</t>
+          <t>学割とスタッフ割の排他/優先度/割引額比較が正しく反映されること</t>
         </is>
       </c>
       <c r="N11" s="4" t="inlineStr">
         <is>
-          <t>app/views/events/show.html.erb:72-155; app/controllers/events_controller.rb:77-85</t>
+          <t>docs/discount_requirements.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>S007a</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>割引シミュレーター内訳</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Event / DiscountEngine</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>選択割引を即時計算し、通常料金/割引後料金/適用順序/丸め(設定: round/floor/ceil)/税額/適用不可理由をライブ表示。</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>discount-preview</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>change-&gt;discount-preview#recalculate</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>割引順序(セット→学・スタッフ→早割 / 学・スタッフ排他 / ％→円)と丸め設定(floor等)を適用</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>適用不可時にカードへ「適用不可」バッジと理由ツールチップ</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>イベント詳細内frame即時更新</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ARIA live polite で金額変化を告知</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>シミュレーション結果はスナップショットへ受け渡し</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>docs/discount_requirements.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>S007b</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>割引スナップショット</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EventDiscountSnapshot</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>適用時に割引ID/カテゴリ/priority/スコープ/丸めモード/税モード/割引額/比較根拠をJSON保存し、再計算と監査で利用。</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>service-object</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>commit-&gt;discount-snapshot#persist</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>イベント更新と同トランザクションで保存・失敗時はロールバック</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>保存失敗時はイベント更新を中止しエラー表示</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>成功時履歴へappend</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>スナップショットIDを返し再現性確認できること</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>docs/discount_requirements.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>S007c</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>割引状態表示</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Discount</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>割引カードに状態バッジ(利用可能/開始前/期限切れ/未公開)と併用可否ラベル、priorityを表示し、排他時は自動的に非選択化・理由提示。</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>discount-status</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>change-&gt;discount-status#sync</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>有効期間・条件・併用ルールを判定</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>条件不一致や排他時に警告バッジを表示</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>画面上で順序固定UI(セット→学/スタッフ→早割)が確認できること</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>docs/discount_requirements.md</t>
         </is>
       </c>
     </row>
@@ -1695,7 +2392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1910,6 +2607,60 @@
       <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Gemfile:27-40; config/database.yml:24-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NFR-07</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>監査/再現性</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>割引適用は必ずスナップショットを作成し、当時設定での再計算と税額整合を保証する。差異調査時はスナップショットを優先利用する。</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>スナップショット保存100ms以内・再計算API&lt;1s・監査ログは1年保持</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>docs/discount_requirements.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NFR-08</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>会計整合性</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>割引計算は丸め方式(floor/round/ceil)と割引後課税を設定ファイルで統一し、複数税率時はスコープ別に按分する。</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>丸め切替は再起動不要、税計算差異0.5%以内、計算ログ1年保持</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>docs/discount_requirements.md</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2219,6 +2970,7 @@
         </is>
       </c>
     </row>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
@@ -2799,17 +3551,17 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>name/kind/value/priority</t>
+          <t>name/method/discount_type/target_scope/priority/conditions_json/valid_from/valid_until/combinability/cap_amount/usage_limit_per_user/usage_limit_per_event/round_mode</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>string/enum/int</t>
+          <t>string/enum/json/datetime/integer</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>name○</t>
+          <t>name○・method○・target_scope○</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -2829,17 +3581,69 @@
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>物理削除</t>
+          <t>物理削除（履歴はsnapshotで保持）</t>
         </is>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>value&lt;=100% or 50,000</t>
+          <t>方法: 円/％/特典/その他、スコープ: ticket/drink/merch/total、priorityで順序制御。条件・期間・併用・上限・丸め・税モードを保持</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
         <is>
-          <t>app/models/discount.rb:1-30</t>
+          <t>docs/discount_requirements.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>event_discount_snapshots</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>event_id/discount_ids/order/payload_json/round_mode/tax_mode/total_after_discount</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>integer/json/string/integer</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>会計記録保持期間（2年目安）</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>論理削除不可</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>割引ID・版・順序・対象範囲・条件評価・丸め/税モード・計算ログをJSONで保存</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>docs/discount_requirements.md</t>
         </is>
       </c>
     </row>
